--- a/Attach/FactoryClient/FactoryClient/精緻化報表.xlsx
+++ b/Attach/FactoryClient/FactoryClient/精緻化報表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE07DE06-2A62-4F4D-920C-6C8542BFF197}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,39 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>點單號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>點餐者</t>
   </si>
   <si>
-    <t>香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大雞排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>時間</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -76,7 +71,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -111,7 +106,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -186,6 +181,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,6 +233,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,16 +425,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,9 +447,6 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Attach/FactoryClient/FactoryClient/精緻化報表.xlsx
+++ b/Attach/FactoryClient/FactoryClient/精緻化報表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE07DE06-2A62-4F4D-920C-6C8542BFF197}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69256A10-EE79-4F01-9676-A7CD136CDC91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>點單號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>時間</t>
+  </si>
+  <si>
+    <t>總價</t>
   </si>
 </sst>
 </file>
@@ -55,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,12 +66,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,32 +450,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="92.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:P10000">
+  <conditionalFormatting sqref="A2:ZZ10000">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($A2=INT($A2),NOT($A2=""))</formula>
     </cfRule>
